--- a/testdata/permitify-data/TOBV2DataFakeRestaurentsBusinessLicences.xlsx
+++ b/testdata/permitify-data/TOBV2DataFakeRestaurentsBusinessLicences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Developer\git-repos\bcgov\forks\permitify\testdata\permitify-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB5DCA5-4241-41BA-ACDF-46A32BC8EF1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6CE605-DB70-4B29-A14B-171A654FA3A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOB Data - Fake - Restaurants" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="1328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="1331">
   <si>
     <t>CORP_NUM</t>
   </si>
@@ -4021,6 +4021,15 @@
   </si>
   <si>
     <t>Booze and Food</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Sole Proprietorship</t>
+  </si>
+  <si>
+    <t>BC Company</t>
   </si>
 </sst>
 </file>
@@ -4470,7 +4479,7 @@
       </c>
       <c r="M2" t="str">
         <f t="shared" ref="M2:M33" ca="1" si="0">IF(D2="BC","",INDEX($C$73:$C$92,RANDBETWEEN(1,20),1))</f>
-        <v>FM0996863</v>
+        <v>FM0978608</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
@@ -4500,7 +4509,7 @@
       </c>
       <c r="M3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0998610</v>
+        <v>FM0411589</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -4530,7 +4539,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0657989</v>
+        <v>FM0531049</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
@@ -4560,7 +4569,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0126534</v>
+        <v>FM0413030</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
@@ -4620,7 +4629,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0577961</v>
+        <v>FM0978608</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
@@ -4650,7 +4659,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0978608</v>
+        <v>FM0126534</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
@@ -4680,7 +4689,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0706765</v>
+        <v>FM0430250</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -4740,7 +4749,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0531049</v>
+        <v>FM0869372</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
@@ -4770,7 +4779,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0996863</v>
+        <v>FM0430250</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
@@ -4800,7 +4809,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0998610</v>
+        <v>FM0256234</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
@@ -4830,7 +4839,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0978608</v>
+        <v>FM0126534</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
@@ -4860,7 +4869,7 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0577961</v>
+        <v>FM0869372</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
@@ -4890,7 +4899,7 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0626073</v>
+        <v>FM0531049</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
@@ -4920,7 +4929,7 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0626073</v>
+        <v>FM0256234</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
@@ -4950,7 +4959,7 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0371429</v>
+        <v>FM0998610</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
@@ -4980,7 +4989,7 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0998610</v>
+        <v>FM0411589</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
@@ -5010,7 +5019,7 @@
       </c>
       <c r="M20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0577961</v>
+        <v>FM0505363</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
@@ -5040,7 +5049,7 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0126534</v>
+        <v>FM0256234</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -5070,7 +5079,7 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0626073</v>
+        <v>FM0430250</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
@@ -5100,7 +5109,7 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0657989</v>
+        <v>FM0371429</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
@@ -5130,7 +5139,7 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0411589</v>
+        <v>FM0126534</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
@@ -5190,7 +5199,7 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0978608</v>
+        <v>FM0706765</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
@@ -5220,7 +5229,7 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0978608</v>
+        <v>FM0650759</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
@@ -5250,7 +5259,7 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0403540</v>
+        <v>FM0371429</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
@@ -5280,7 +5289,7 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0749927</v>
+        <v>FM0657989</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
@@ -5310,7 +5319,7 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FM0998610</v>
+        <v>FM0706765</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
@@ -7184,9 +7193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7270,20 +7279,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L2,"YYYY-MM-DD")</f>
         <v>2010-02-16</v>
       </c>
-      <c r="D2" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D2</f>
-        <v>SP</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E33" si="1">"ACT"</f>
-        <v>ACT</v>
+      <c r="D2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1328</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F33" si="2">C2</f>
+        <f t="shared" ref="F2:F33" si="1">C2</f>
         <v>2010-02-16</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G33" si="3">C2</f>
+        <f t="shared" ref="G2:G33" si="2">C2</f>
         <v>2010-02-16</v>
       </c>
       <c r="H2" t="str">
@@ -7319,7 +7326,7 @@
         <v>BC</v>
       </c>
       <c r="P2" t="str">
-        <f t="shared" ref="P2:P33" si="4">IF(D2="SP","Filing:FRREG","Filing:REGST")</f>
+        <f>IF(D2="Sole Proprietorship","Filing:FRREG","Filing:REGST")</f>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -7336,20 +7343,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L3,"YYYY-MM-DD")</f>
         <v>2017-11-25</v>
       </c>
-      <c r="D3" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D3</f>
-        <v>SP</v>
-      </c>
-      <c r="E3" t="str">
+      <c r="D3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F3" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F3" t="str">
+        <v>2017-11-25</v>
+      </c>
+      <c r="G3" t="str">
         <f t="shared" si="2"/>
-        <v>2017-11-25</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" si="3"/>
         <v>2017-11-25</v>
       </c>
       <c r="H3" t="str">
@@ -7385,7 +7390,7 @@
         <v>BC</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P3:P66" si="3">IF(D3="Sole Proprietorship","Filing:FRREG","Filing:REGST")</f>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -7402,20 +7407,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L4,"YYYY-MM-DD")</f>
         <v>2008-10-14</v>
       </c>
-      <c r="D4" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D4</f>
-        <v>SP</v>
-      </c>
-      <c r="E4" t="str">
+      <c r="D4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F4" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F4" t="str">
+        <v>2008-10-14</v>
+      </c>
+      <c r="G4" t="str">
         <f t="shared" si="2"/>
-        <v>2008-10-14</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="3"/>
         <v>2008-10-14</v>
       </c>
       <c r="H4" t="str">
@@ -7451,7 +7454,7 @@
         <v>BC</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -7468,20 +7471,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L5,"YYYY-MM-DD")</f>
         <v>2014-04-09</v>
       </c>
-      <c r="D5" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D5</f>
-        <v>SP</v>
-      </c>
-      <c r="E5" t="str">
+      <c r="D5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F5" t="str">
+        <v>2014-04-09</v>
+      </c>
+      <c r="G5" t="str">
         <f t="shared" si="2"/>
-        <v>2014-04-09</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="3"/>
         <v>2014-04-09</v>
       </c>
       <c r="H5" t="str">
@@ -7517,7 +7518,7 @@
         <v>BC</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -7534,20 +7535,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L6,"YYYY-MM-DD")</f>
         <v>2013-07-26</v>
       </c>
-      <c r="D6" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D6</f>
-        <v>SP</v>
-      </c>
-      <c r="E6" t="str">
+      <c r="D6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F6" t="str">
+        <v>2013-07-26</v>
+      </c>
+      <c r="G6" t="str">
         <f t="shared" si="2"/>
-        <v>2013-07-26</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="3"/>
         <v>2013-07-26</v>
       </c>
       <c r="H6" t="str">
@@ -7583,7 +7582,7 @@
         <v>BC</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -7600,20 +7599,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L7,"YYYY-MM-DD")</f>
         <v>2008-09-17</v>
       </c>
-      <c r="D7" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D7</f>
-        <v>SP</v>
-      </c>
-      <c r="E7" t="str">
+      <c r="D7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F7" t="str">
+        <v>2008-09-17</v>
+      </c>
+      <c r="G7" t="str">
         <f t="shared" si="2"/>
-        <v>2008-09-17</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="3"/>
         <v>2008-09-17</v>
       </c>
       <c r="H7" t="str">
@@ -7649,7 +7646,7 @@
         <v>BC</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -7666,20 +7663,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L8,"YYYY-MM-DD")</f>
         <v>2009-01-03</v>
       </c>
-      <c r="D8" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D8</f>
-        <v>SP</v>
-      </c>
-      <c r="E8" t="str">
+      <c r="D8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F8" t="str">
+        <v>2009-01-03</v>
+      </c>
+      <c r="G8" t="str">
         <f t="shared" si="2"/>
-        <v>2009-01-03</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="3"/>
         <v>2009-01-03</v>
       </c>
       <c r="H8" t="str">
@@ -7715,7 +7710,7 @@
         <v>BC</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -7732,20 +7727,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L9,"YYYY-MM-DD")</f>
         <v>2011-05-01</v>
       </c>
-      <c r="D9" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D9</f>
-        <v>SP</v>
-      </c>
-      <c r="E9" t="str">
+      <c r="D9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F9" t="str">
+        <v>2011-05-01</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="2"/>
-        <v>2011-05-01</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="3"/>
         <v>2011-05-01</v>
       </c>
       <c r="H9" t="str">
@@ -7781,7 +7774,7 @@
         <v>BC</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -7798,20 +7791,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L10,"YYYY-MM-DD")</f>
         <v>2007-04-25</v>
       </c>
-      <c r="D10" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D10</f>
-        <v>SP</v>
-      </c>
-      <c r="E10" t="str">
+      <c r="D10" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F10" t="str">
+        <v>2007-04-25</v>
+      </c>
+      <c r="G10" t="str">
         <f t="shared" si="2"/>
-        <v>2007-04-25</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="3"/>
         <v>2007-04-25</v>
       </c>
       <c r="H10" t="str">
@@ -7847,7 +7838,7 @@
         <v>BC</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -7864,20 +7855,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L11,"YYYY-MM-DD")</f>
         <v>2018-05-30</v>
       </c>
-      <c r="D11" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D11</f>
-        <v>SP</v>
-      </c>
-      <c r="E11" t="str">
+      <c r="D11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F11" t="str">
+        <v>2018-05-30</v>
+      </c>
+      <c r="G11" t="str">
         <f t="shared" si="2"/>
-        <v>2018-05-30</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="3"/>
         <v>2018-05-30</v>
       </c>
       <c r="H11" t="str">
@@ -7913,7 +7902,7 @@
         <v>BC</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -7930,20 +7919,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L12,"YYYY-MM-DD")</f>
         <v>2018-07-05</v>
       </c>
-      <c r="D12" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D12</f>
-        <v>SP</v>
-      </c>
-      <c r="E12" t="str">
+      <c r="D12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F12" t="str">
+        <v>2018-07-05</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="2"/>
-        <v>2018-07-05</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="3"/>
         <v>2018-07-05</v>
       </c>
       <c r="H12" t="str">
@@ -7979,7 +7966,7 @@
         <v>BC</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -7996,20 +7983,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L13,"YYYY-MM-DD")</f>
         <v>2015-09-06</v>
       </c>
-      <c r="D13" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D13</f>
-        <v>SP</v>
-      </c>
-      <c r="E13" t="str">
+      <c r="D13" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F13" t="str">
+        <v>2015-09-06</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" si="2"/>
-        <v>2015-09-06</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="3"/>
         <v>2015-09-06</v>
       </c>
       <c r="H13" t="str">
@@ -8045,7 +8030,7 @@
         <v>BC</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -8062,20 +8047,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L14,"YYYY-MM-DD")</f>
         <v>2015-05-31</v>
       </c>
-      <c r="D14" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D14</f>
-        <v>SP</v>
-      </c>
-      <c r="E14" t="str">
+      <c r="D14" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F14" t="str">
+        <v>2015-05-31</v>
+      </c>
+      <c r="G14" t="str">
         <f t="shared" si="2"/>
-        <v>2015-05-31</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="3"/>
         <v>2015-05-31</v>
       </c>
       <c r="H14" t="str">
@@ -8111,7 +8094,7 @@
         <v>BC</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -8128,20 +8111,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L15,"YYYY-MM-DD")</f>
         <v>2011-05-24</v>
       </c>
-      <c r="D15" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D15</f>
-        <v>SP</v>
-      </c>
-      <c r="E15" t="str">
+      <c r="D15" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F15" t="str">
+        <v>2011-05-24</v>
+      </c>
+      <c r="G15" t="str">
         <f t="shared" si="2"/>
-        <v>2011-05-24</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="3"/>
         <v>2011-05-24</v>
       </c>
       <c r="H15" t="str">
@@ -8177,7 +8158,7 @@
         <v>BC</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -8194,20 +8175,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L16,"YYYY-MM-DD")</f>
         <v>2011-08-26</v>
       </c>
-      <c r="D16" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D16</f>
-        <v>SP</v>
-      </c>
-      <c r="E16" t="str">
+      <c r="D16" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F16" t="str">
+        <v>2011-08-26</v>
+      </c>
+      <c r="G16" t="str">
         <f t="shared" si="2"/>
-        <v>2011-08-26</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="3"/>
         <v>2011-08-26</v>
       </c>
       <c r="H16" t="str">
@@ -8243,7 +8222,7 @@
         <v>BC</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -8260,20 +8239,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L17,"YYYY-MM-DD")</f>
         <v>2008-11-25</v>
       </c>
-      <c r="D17" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D17</f>
-        <v>SP</v>
-      </c>
-      <c r="E17" t="str">
+      <c r="D17" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F17" t="str">
+        <v>2008-11-25</v>
+      </c>
+      <c r="G17" t="str">
         <f t="shared" si="2"/>
-        <v>2008-11-25</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="3"/>
         <v>2008-11-25</v>
       </c>
       <c r="H17" t="str">
@@ -8309,7 +8286,7 @@
         <v>BC</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -8326,20 +8303,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L18,"YYYY-MM-DD")</f>
         <v>2005-08-22</v>
       </c>
-      <c r="D18" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D18</f>
-        <v>SP</v>
-      </c>
-      <c r="E18" t="str">
+      <c r="D18" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F18" t="str">
+        <v>2005-08-22</v>
+      </c>
+      <c r="G18" t="str">
         <f t="shared" si="2"/>
-        <v>2005-08-22</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="3"/>
         <v>2005-08-22</v>
       </c>
       <c r="H18" t="str">
@@ -8375,7 +8350,7 @@
         <v>BC</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -8392,20 +8367,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L19,"YYYY-MM-DD")</f>
         <v>2017-02-11</v>
       </c>
-      <c r="D19" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D19</f>
-        <v>SP</v>
-      </c>
-      <c r="E19" t="str">
+      <c r="D19" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F19" t="str">
+        <v>2017-02-11</v>
+      </c>
+      <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>2017-02-11</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="3"/>
         <v>2017-02-11</v>
       </c>
       <c r="H19" t="str">
@@ -8441,7 +8414,7 @@
         <v>BC</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -8458,20 +8431,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L20,"YYYY-MM-DD")</f>
         <v>2016-03-04</v>
       </c>
-      <c r="D20" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D20</f>
-        <v>SP</v>
-      </c>
-      <c r="E20" t="str">
+      <c r="D20" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F20" t="str">
+        <v>2016-03-04</v>
+      </c>
+      <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>2016-03-04</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="3"/>
         <v>2016-03-04</v>
       </c>
       <c r="H20" t="str">
@@ -8507,7 +8478,7 @@
         <v>BC</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -8524,20 +8495,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L21,"YYYY-MM-DD")</f>
         <v>2007-01-08</v>
       </c>
-      <c r="D21" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D21</f>
-        <v>SP</v>
-      </c>
-      <c r="E21" t="str">
+      <c r="D21" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F21" t="str">
+        <v>2007-01-08</v>
+      </c>
+      <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>2007-01-08</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="3"/>
         <v>2007-01-08</v>
       </c>
       <c r="H21" t="str">
@@ -8573,7 +8542,7 @@
         <v>BC</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -8590,20 +8559,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L22,"YYYY-MM-DD")</f>
         <v>2004-11-21</v>
       </c>
-      <c r="D22" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D22</f>
-        <v>SP</v>
-      </c>
-      <c r="E22" t="str">
+      <c r="D22" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F22" t="str">
+        <v>2004-11-21</v>
+      </c>
+      <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>2004-11-21</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="3"/>
         <v>2004-11-21</v>
       </c>
       <c r="H22" t="str">
@@ -8639,7 +8606,7 @@
         <v>BC</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -8656,20 +8623,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L23,"YYYY-MM-DD")</f>
         <v>2005-02-12</v>
       </c>
-      <c r="D23" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D23</f>
-        <v>SP</v>
-      </c>
-      <c r="E23" t="str">
+      <c r="D23" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F23" t="str">
+        <v>2005-02-12</v>
+      </c>
+      <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>2005-02-12</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="3"/>
         <v>2005-02-12</v>
       </c>
       <c r="H23" t="str">
@@ -8705,7 +8670,7 @@
         <v>BC</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -8722,20 +8687,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L24,"YYYY-MM-DD")</f>
         <v>2010-07-14</v>
       </c>
-      <c r="D24" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D24</f>
-        <v>SP</v>
-      </c>
-      <c r="E24" t="str">
+      <c r="D24" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F24" t="str">
+        <v>2010-07-14</v>
+      </c>
+      <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>2010-07-14</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="3"/>
         <v>2010-07-14</v>
       </c>
       <c r="H24" t="str">
@@ -8771,7 +8734,7 @@
         <v>BC</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -8788,20 +8751,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L25,"YYYY-MM-DD")</f>
         <v>2005-09-03</v>
       </c>
-      <c r="D25" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D25</f>
-        <v>SP</v>
-      </c>
-      <c r="E25" t="str">
+      <c r="D25" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F25" t="str">
+        <v>2005-09-03</v>
+      </c>
+      <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>2005-09-03</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="3"/>
         <v>2005-09-03</v>
       </c>
       <c r="H25" t="str">
@@ -8837,7 +8798,7 @@
         <v>BC</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -8854,20 +8815,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L26,"YYYY-MM-DD")</f>
         <v>2014-06-30</v>
       </c>
-      <c r="D26" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D26</f>
-        <v>SP</v>
-      </c>
-      <c r="E26" t="str">
+      <c r="D26" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F26" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F26" t="str">
+        <v>2014-06-30</v>
+      </c>
+      <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>2014-06-30</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="3"/>
         <v>2014-06-30</v>
       </c>
       <c r="H26" t="str">
@@ -8903,7 +8862,7 @@
         <v>BC</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -8920,20 +8879,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L27,"YYYY-MM-DD")</f>
         <v>2018-05-13</v>
       </c>
-      <c r="D27" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D27</f>
-        <v>SP</v>
-      </c>
-      <c r="E27" t="str">
+      <c r="D27" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F27" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F27" t="str">
+        <v>2018-05-13</v>
+      </c>
+      <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>2018-05-13</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="3"/>
         <v>2018-05-13</v>
       </c>
       <c r="H27" t="str">
@@ -8969,7 +8926,7 @@
         <v>BC</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -8986,20 +8943,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L28,"YYYY-MM-DD")</f>
         <v>2012-08-23</v>
       </c>
-      <c r="D28" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D28</f>
-        <v>SP</v>
-      </c>
-      <c r="E28" t="str">
+      <c r="D28" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F28" t="str">
+        <v>2012-08-23</v>
+      </c>
+      <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>2012-08-23</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="3"/>
         <v>2012-08-23</v>
       </c>
       <c r="H28" t="str">
@@ -9035,7 +8990,7 @@
         <v>BC</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -9052,20 +9007,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L29,"YYYY-MM-DD")</f>
         <v>2013-02-06</v>
       </c>
-      <c r="D29" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D29</f>
-        <v>SP</v>
-      </c>
-      <c r="E29" t="str">
+      <c r="D29" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F29" t="str">
+        <v>2013-02-06</v>
+      </c>
+      <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>2013-02-06</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="3"/>
         <v>2013-02-06</v>
       </c>
       <c r="H29" t="str">
@@ -9101,7 +9054,7 @@
         <v>BC</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -9118,20 +9071,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L30,"YYYY-MM-DD")</f>
         <v>2010-07-31</v>
       </c>
-      <c r="D30" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D30</f>
-        <v>SP</v>
-      </c>
-      <c r="E30" t="str">
+      <c r="D30" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F30" t="str">
+        <v>2010-07-31</v>
+      </c>
+      <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>2010-07-31</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="3"/>
         <v>2010-07-31</v>
       </c>
       <c r="H30" t="str">
@@ -9167,7 +9118,7 @@
         <v>BC</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:FRREG</v>
       </c>
     </row>
@@ -9184,20 +9135,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L31,"YYYY-MM-DD")</f>
         <v>2011-12-28</v>
       </c>
-      <c r="D31" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D31</f>
-        <v>BC</v>
-      </c>
-      <c r="E31" t="str">
+      <c r="D31" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F31" t="str">
+        <v>2011-12-28</v>
+      </c>
+      <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>2011-12-28</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="3"/>
         <v>2011-12-28</v>
       </c>
       <c r="H31" t="str">
@@ -9233,7 +9182,7 @@
         <v>BC</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
@@ -9250,20 +9199,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L32,"YYYY-MM-DD")</f>
         <v>2008-03-06</v>
       </c>
-      <c r="D32" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D32</f>
-        <v>BC</v>
-      </c>
-      <c r="E32" t="str">
+      <c r="D32" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F32" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F32" t="str">
+        <v>2008-03-06</v>
+      </c>
+      <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>2008-03-06</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="3"/>
         <v>2008-03-06</v>
       </c>
       <c r="H32" t="str">
@@ -9299,7 +9246,7 @@
         <v>BC</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
@@ -9316,20 +9263,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L33,"YYYY-MM-DD")</f>
         <v>2016-10-12</v>
       </c>
-      <c r="D33" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D33</f>
-        <v>BC</v>
-      </c>
-      <c r="E33" t="str">
+      <c r="D33" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F33" t="str">
         <f t="shared" si="1"/>
-        <v>ACT</v>
-      </c>
-      <c r="F33" t="str">
+        <v>2016-10-12</v>
+      </c>
+      <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>2016-10-12</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="3"/>
         <v>2016-10-12</v>
       </c>
       <c r="H33" t="str">
@@ -9365,13 +9310,13 @@
         <v>BC</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" t="str">
-        <f t="shared" ref="A34:A65" si="5">IF(B34 &lt;&gt; "",B34,"-")</f>
+        <f t="shared" ref="A34:A65" si="4">IF(B34 &lt;&gt; "",B34,"-")</f>
         <v>FM0873772</v>
       </c>
       <c r="B34" t="str">
@@ -9382,20 +9327,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L34,"YYYY-MM-DD")</f>
         <v>2010-08-22</v>
       </c>
-      <c r="D34" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D34</f>
-        <v>BC</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" ref="E34:E65" si="6">"ACT"</f>
-        <v>ACT</v>
+      <c r="D34" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1328</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" ref="F34:F65" si="7">C34</f>
+        <f t="shared" ref="F34:F65" si="5">C34</f>
         <v>2010-08-22</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" ref="G34:G65" si="8">C34</f>
+        <f t="shared" ref="G34:G65" si="6">C34</f>
         <v>2010-08-22</v>
       </c>
       <c r="H34" t="str">
@@ -9431,13 +9374,13 @@
         <v>BC</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" ref="P34:P65" si="9">IF(D34="SP","Filing:FRREG","Filing:REGST")</f>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0316141</v>
       </c>
       <c r="B35" t="str">
@@ -9448,20 +9391,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L35,"YYYY-MM-DD")</f>
         <v>2010-06-10</v>
       </c>
-      <c r="D35" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D35</f>
-        <v>BC</v>
-      </c>
-      <c r="E35" t="str">
+      <c r="D35" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="5"/>
+        <v>2010-06-10</v>
+      </c>
+      <c r="G35" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="7"/>
-        <v>2010-06-10</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="8"/>
         <v>2010-06-10</v>
       </c>
       <c r="H35" t="str">
@@ -9497,13 +9438,13 @@
         <v>BC</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0772805</v>
       </c>
       <c r="B36" t="str">
@@ -9514,20 +9455,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L36,"YYYY-MM-DD")</f>
         <v>2009-01-09</v>
       </c>
-      <c r="D36" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D36</f>
-        <v>BC</v>
-      </c>
-      <c r="E36" t="str">
+      <c r="D36" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="5"/>
+        <v>2009-01-09</v>
+      </c>
+      <c r="G36" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="7"/>
-        <v>2009-01-09</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="8"/>
         <v>2009-01-09</v>
       </c>
       <c r="H36" t="str">
@@ -9563,13 +9502,13 @@
         <v>BC</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0477000</v>
       </c>
       <c r="B37" t="str">
@@ -9580,20 +9519,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L37,"YYYY-MM-DD")</f>
         <v>2007-03-12</v>
       </c>
-      <c r="D37" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D37</f>
-        <v>BC</v>
-      </c>
-      <c r="E37" t="str">
+      <c r="D37" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="5"/>
+        <v>2007-03-12</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="7"/>
-        <v>2007-03-12</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="8"/>
         <v>2007-03-12</v>
       </c>
       <c r="H37" t="str">
@@ -9629,13 +9566,13 @@
         <v>BC</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0966998</v>
       </c>
       <c r="B38" t="str">
@@ -9646,20 +9583,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L38,"YYYY-MM-DD")</f>
         <v>2012-11-07</v>
       </c>
-      <c r="D38" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D38</f>
-        <v>BC</v>
-      </c>
-      <c r="E38" t="str">
+      <c r="D38" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="5"/>
+        <v>2012-11-07</v>
+      </c>
+      <c r="G38" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="7"/>
-        <v>2012-11-07</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="8"/>
         <v>2012-11-07</v>
       </c>
       <c r="H38" t="str">
@@ -9695,13 +9630,13 @@
         <v>BC</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0243624</v>
       </c>
       <c r="B39" t="str">
@@ -9712,20 +9647,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L39,"YYYY-MM-DD")</f>
         <v>2007-08-30</v>
       </c>
-      <c r="D39" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D39</f>
-        <v>BC</v>
-      </c>
-      <c r="E39" t="str">
+      <c r="D39" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="5"/>
+        <v>2007-08-30</v>
+      </c>
+      <c r="G39" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="7"/>
-        <v>2007-08-30</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="8"/>
         <v>2007-08-30</v>
       </c>
       <c r="H39" t="str">
@@ -9761,13 +9694,13 @@
         <v>BC</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0866885</v>
       </c>
       <c r="B40" t="str">
@@ -9778,20 +9711,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L40,"YYYY-MM-DD")</f>
         <v>2011-05-08</v>
       </c>
-      <c r="D40" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D40</f>
-        <v>BC</v>
-      </c>
-      <c r="E40" t="str">
+      <c r="D40" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="5"/>
+        <v>2011-05-08</v>
+      </c>
+      <c r="G40" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="7"/>
-        <v>2011-05-08</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="8"/>
         <v>2011-05-08</v>
       </c>
       <c r="H40" t="str">
@@ -9827,13 +9758,13 @@
         <v>BC</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0208254</v>
       </c>
       <c r="B41" t="str">
@@ -9844,20 +9775,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L41,"YYYY-MM-DD")</f>
         <v>2009-07-19</v>
       </c>
-      <c r="D41" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D41</f>
-        <v>BC</v>
-      </c>
-      <c r="E41" t="str">
+      <c r="D41" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="5"/>
+        <v>2009-07-19</v>
+      </c>
+      <c r="G41" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="7"/>
-        <v>2009-07-19</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="8"/>
         <v>2009-07-19</v>
       </c>
       <c r="H41" t="str">
@@ -9893,13 +9822,13 @@
         <v>BC</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0438529</v>
       </c>
       <c r="B42" t="str">
@@ -9910,20 +9839,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L42,"YYYY-MM-DD")</f>
         <v>2007-07-08</v>
       </c>
-      <c r="D42" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D42</f>
-        <v>BC</v>
-      </c>
-      <c r="E42" t="str">
+      <c r="D42" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="5"/>
+        <v>2007-07-08</v>
+      </c>
+      <c r="G42" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="7"/>
-        <v>2007-07-08</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="8"/>
         <v>2007-07-08</v>
       </c>
       <c r="H42" t="str">
@@ -9959,13 +9886,13 @@
         <v>BC</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0275231</v>
       </c>
       <c r="B43" t="str">
@@ -9976,20 +9903,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L43,"YYYY-MM-DD")</f>
         <v>2015-12-24</v>
       </c>
-      <c r="D43" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D43</f>
-        <v>BC</v>
-      </c>
-      <c r="E43" t="str">
+      <c r="D43" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="5"/>
+        <v>2015-12-24</v>
+      </c>
+      <c r="G43" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="7"/>
-        <v>2015-12-24</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="8"/>
         <v>2015-12-24</v>
       </c>
       <c r="H43" t="str">
@@ -10025,13 +9950,13 @@
         <v>BC</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0766215</v>
       </c>
       <c r="B44" t="str">
@@ -10042,20 +9967,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L44,"YYYY-MM-DD")</f>
         <v>2016-08-17</v>
       </c>
-      <c r="D44" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D44</f>
-        <v>BC</v>
-      </c>
-      <c r="E44" t="str">
+      <c r="D44" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="5"/>
+        <v>2016-08-17</v>
+      </c>
+      <c r="G44" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="7"/>
-        <v>2016-08-17</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="8"/>
         <v>2016-08-17</v>
       </c>
       <c r="H44" t="str">
@@ -10091,13 +10014,13 @@
         <v>BC</v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0493257</v>
       </c>
       <c r="B45" t="str">
@@ -10108,20 +10031,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L45,"YYYY-MM-DD")</f>
         <v>2009-06-13</v>
       </c>
-      <c r="D45" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D45</f>
-        <v>BC</v>
-      </c>
-      <c r="E45" t="str">
+      <c r="D45" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="5"/>
+        <v>2009-06-13</v>
+      </c>
+      <c r="G45" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="7"/>
-        <v>2009-06-13</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="8"/>
         <v>2009-06-13</v>
       </c>
       <c r="H45" t="str">
@@ -10157,13 +10078,13 @@
         <v>BC</v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0394524</v>
       </c>
       <c r="B46" t="str">
@@ -10174,20 +10095,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L46,"YYYY-MM-DD")</f>
         <v>2007-05-31</v>
       </c>
-      <c r="D46" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D46</f>
-        <v>BC</v>
-      </c>
-      <c r="E46" t="str">
+      <c r="D46" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="5"/>
+        <v>2007-05-31</v>
+      </c>
+      <c r="G46" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="7"/>
-        <v>2007-05-31</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="8"/>
         <v>2007-05-31</v>
       </c>
       <c r="H46" t="str">
@@ -10223,13 +10142,13 @@
         <v>BC</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0252807</v>
       </c>
       <c r="B47" t="str">
@@ -10240,20 +10159,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L47,"YYYY-MM-DD")</f>
         <v>2005-12-16</v>
       </c>
-      <c r="D47" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D47</f>
-        <v>BC</v>
-      </c>
-      <c r="E47" t="str">
+      <c r="D47" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="5"/>
+        <v>2005-12-16</v>
+      </c>
+      <c r="G47" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="7"/>
-        <v>2005-12-16</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="8"/>
         <v>2005-12-16</v>
       </c>
       <c r="H47" t="str">
@@ -10289,13 +10206,13 @@
         <v>BC</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0945647</v>
       </c>
       <c r="B48" t="str">
@@ -10306,20 +10223,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L48,"YYYY-MM-DD")</f>
         <v>2006-12-12</v>
       </c>
-      <c r="D48" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D48</f>
-        <v>BC</v>
-      </c>
-      <c r="E48" t="str">
+      <c r="D48" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="5"/>
+        <v>2006-12-12</v>
+      </c>
+      <c r="G48" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="7"/>
-        <v>2006-12-12</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="8"/>
         <v>2006-12-12</v>
       </c>
       <c r="H48" t="str">
@@ -10355,13 +10270,13 @@
         <v>BC</v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0594194</v>
       </c>
       <c r="B49" t="str">
@@ -10372,20 +10287,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L49,"YYYY-MM-DD")</f>
         <v>2010-09-19</v>
       </c>
-      <c r="D49" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D49</f>
-        <v>BC</v>
-      </c>
-      <c r="E49" t="str">
+      <c r="D49" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="5"/>
+        <v>2010-09-19</v>
+      </c>
+      <c r="G49" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="7"/>
-        <v>2010-09-19</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="8"/>
         <v>2010-09-19</v>
       </c>
       <c r="H49" t="str">
@@ -10421,13 +10334,13 @@
         <v>BC</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0770314</v>
       </c>
       <c r="B50" t="str">
@@ -10438,20 +10351,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L50,"YYYY-MM-DD")</f>
         <v>2007-07-03</v>
       </c>
-      <c r="D50" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D50</f>
-        <v>BC</v>
-      </c>
-      <c r="E50" t="str">
+      <c r="D50" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="5"/>
+        <v>2007-07-03</v>
+      </c>
+      <c r="G50" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="7"/>
-        <v>2007-07-03</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="8"/>
         <v>2007-07-03</v>
       </c>
       <c r="H50" t="str">
@@ -10487,13 +10398,13 @@
         <v>BC</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0773064</v>
       </c>
       <c r="B51" t="str">
@@ -10504,20 +10415,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L51,"YYYY-MM-DD")</f>
         <v>2017-06-27</v>
       </c>
-      <c r="D51" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D51</f>
-        <v>BC</v>
-      </c>
-      <c r="E51" t="str">
+      <c r="D51" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="5"/>
+        <v>2017-06-27</v>
+      </c>
+      <c r="G51" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="7"/>
-        <v>2017-06-27</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="8"/>
         <v>2017-06-27</v>
       </c>
       <c r="H51" t="str">
@@ -10553,13 +10462,13 @@
         <v>BC</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0606900</v>
       </c>
       <c r="B52" t="str">
@@ -10570,20 +10479,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L52,"YYYY-MM-DD")</f>
         <v>2013-09-18</v>
       </c>
-      <c r="D52" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D52</f>
-        <v>BC</v>
-      </c>
-      <c r="E52" t="str">
+      <c r="D52" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="5"/>
+        <v>2013-09-18</v>
+      </c>
+      <c r="G52" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="7"/>
-        <v>2013-09-18</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="8"/>
         <v>2013-09-18</v>
       </c>
       <c r="H52" t="str">
@@ -10619,13 +10526,13 @@
         <v>BC</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0987236</v>
       </c>
       <c r="B53" t="str">
@@ -10636,20 +10543,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L53,"YYYY-MM-DD")</f>
         <v>2008-04-12</v>
       </c>
-      <c r="D53" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D53</f>
-        <v>BC</v>
-      </c>
-      <c r="E53" t="str">
+      <c r="D53" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="5"/>
+        <v>2008-04-12</v>
+      </c>
+      <c r="G53" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="7"/>
-        <v>2008-04-12</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="8"/>
         <v>2008-04-12</v>
       </c>
       <c r="H53" t="str">
@@ -10685,13 +10590,13 @@
         <v>BC</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0908695</v>
       </c>
       <c r="B54" t="str">
@@ -10702,20 +10607,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L54,"YYYY-MM-DD")</f>
         <v>2008-06-09</v>
       </c>
-      <c r="D54" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D54</f>
-        <v>BC</v>
-      </c>
-      <c r="E54" t="str">
+      <c r="D54" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="5"/>
+        <v>2008-06-09</v>
+      </c>
+      <c r="G54" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="7"/>
-        <v>2008-06-09</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="8"/>
         <v>2008-06-09</v>
       </c>
       <c r="H54" t="str">
@@ -10751,13 +10654,13 @@
         <v>BC</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0408534</v>
       </c>
       <c r="B55" t="str">
@@ -10768,20 +10671,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L55,"YYYY-MM-DD")</f>
         <v>2016-10-05</v>
       </c>
-      <c r="D55" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D55</f>
-        <v>BC</v>
-      </c>
-      <c r="E55" t="str">
+      <c r="D55" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="5"/>
+        <v>2016-10-05</v>
+      </c>
+      <c r="G55" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="7"/>
-        <v>2016-10-05</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="8"/>
         <v>2016-10-05</v>
       </c>
       <c r="H55" t="str">
@@ -10817,13 +10718,13 @@
         <v>BC</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0894315</v>
       </c>
       <c r="B56" t="str">
@@ -10834,20 +10735,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L56,"YYYY-MM-DD")</f>
         <v>2010-03-09</v>
       </c>
-      <c r="D56" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D56</f>
-        <v>BC</v>
-      </c>
-      <c r="E56" t="str">
+      <c r="D56" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="5"/>
+        <v>2010-03-09</v>
+      </c>
+      <c r="G56" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="7"/>
-        <v>2010-03-09</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="8"/>
         <v>2010-03-09</v>
       </c>
       <c r="H56" t="str">
@@ -10883,13 +10782,13 @@
         <v>BC</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0205108</v>
       </c>
       <c r="B57" t="str">
@@ -10900,20 +10799,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L57,"YYYY-MM-DD")</f>
         <v>2016-01-15</v>
       </c>
-      <c r="D57" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D57</f>
-        <v>BC</v>
-      </c>
-      <c r="E57" t="str">
+      <c r="D57" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="5"/>
+        <v>2016-01-15</v>
+      </c>
+      <c r="G57" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="7"/>
-        <v>2016-01-15</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="8"/>
         <v>2016-01-15</v>
       </c>
       <c r="H57" t="str">
@@ -10949,13 +10846,13 @@
         <v>BC</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0819154</v>
       </c>
       <c r="B58" t="str">
@@ -10966,20 +10863,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L58,"YYYY-MM-DD")</f>
         <v>2007-08-10</v>
       </c>
-      <c r="D58" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D58</f>
-        <v>BC</v>
-      </c>
-      <c r="E58" t="str">
+      <c r="D58" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="5"/>
+        <v>2007-08-10</v>
+      </c>
+      <c r="G58" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="7"/>
-        <v>2007-08-10</v>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="8"/>
         <v>2007-08-10</v>
       </c>
       <c r="H58" t="str">
@@ -11015,13 +10910,13 @@
         <v>BC</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0236497</v>
       </c>
       <c r="B59" t="str">
@@ -11032,20 +10927,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L59,"YYYY-MM-DD")</f>
         <v>2006-11-15</v>
       </c>
-      <c r="D59" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D59</f>
-        <v>BC</v>
-      </c>
-      <c r="E59" t="str">
+      <c r="D59" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="5"/>
+        <v>2006-11-15</v>
+      </c>
+      <c r="G59" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="7"/>
-        <v>2006-11-15</v>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" si="8"/>
         <v>2006-11-15</v>
       </c>
       <c r="H59" t="str">
@@ -11081,13 +10974,13 @@
         <v>BC</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0143798</v>
       </c>
       <c r="B60" t="str">
@@ -11098,20 +10991,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L60,"YYYY-MM-DD")</f>
         <v>2008-09-29</v>
       </c>
-      <c r="D60" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D60</f>
-        <v>BC</v>
-      </c>
-      <c r="E60" t="str">
+      <c r="D60" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="5"/>
+        <v>2008-09-29</v>
+      </c>
+      <c r="G60" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="7"/>
-        <v>2008-09-29</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="8"/>
         <v>2008-09-29</v>
       </c>
       <c r="H60" t="str">
@@ -11147,13 +11038,13 @@
         <v>BC</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0736747</v>
       </c>
       <c r="B61" t="str">
@@ -11164,20 +11055,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L61,"YYYY-MM-DD")</f>
         <v>2012-05-16</v>
       </c>
-      <c r="D61" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D61</f>
-        <v>BC</v>
-      </c>
-      <c r="E61" t="str">
+      <c r="D61" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="5"/>
+        <v>2012-05-16</v>
+      </c>
+      <c r="G61" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="7"/>
-        <v>2012-05-16</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="8"/>
         <v>2012-05-16</v>
       </c>
       <c r="H61" t="str">
@@ -11213,13 +11102,13 @@
         <v>BC</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0989904</v>
       </c>
       <c r="B62" t="str">
@@ -11230,20 +11119,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L62,"YYYY-MM-DD")</f>
         <v>2012-06-08</v>
       </c>
-      <c r="D62" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D62</f>
-        <v>BC</v>
-      </c>
-      <c r="E62" t="str">
+      <c r="D62" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="5"/>
+        <v>2012-06-08</v>
+      </c>
+      <c r="G62" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" si="7"/>
-        <v>2012-06-08</v>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" si="8"/>
         <v>2012-06-08</v>
       </c>
       <c r="H62" t="str">
@@ -11279,13 +11166,13 @@
         <v>BC</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0976216</v>
       </c>
       <c r="B63" t="str">
@@ -11296,20 +11183,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L63,"YYYY-MM-DD")</f>
         <v>2007-08-11</v>
       </c>
-      <c r="D63" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D63</f>
-        <v>BC</v>
-      </c>
-      <c r="E63" t="str">
+      <c r="D63" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="5"/>
+        <v>2007-08-11</v>
+      </c>
+      <c r="G63" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" si="7"/>
-        <v>2007-08-11</v>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" si="8"/>
         <v>2007-08-11</v>
       </c>
       <c r="H63" t="str">
@@ -11345,13 +11230,13 @@
         <v>BC</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0927172</v>
       </c>
       <c r="B64" t="str">
@@ -11362,20 +11247,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L64,"YYYY-MM-DD")</f>
         <v>2013-01-21</v>
       </c>
-      <c r="D64" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D64</f>
-        <v>BC</v>
-      </c>
-      <c r="E64" t="str">
+      <c r="D64" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="5"/>
+        <v>2013-01-21</v>
+      </c>
+      <c r="G64" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" si="7"/>
-        <v>2013-01-21</v>
-      </c>
-      <c r="G64" t="str">
-        <f t="shared" si="8"/>
         <v>2013-01-21</v>
       </c>
       <c r="H64" t="str">
@@ -11411,13 +11294,13 @@
         <v>BC</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>FM0503636</v>
       </c>
       <c r="B65" t="str">
@@ -11428,20 +11311,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L65,"YYYY-MM-DD")</f>
         <v>2007-12-06</v>
       </c>
-      <c r="D65" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D65</f>
-        <v>BC</v>
-      </c>
-      <c r="E65" t="str">
+      <c r="D65" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="5"/>
+        <v>2007-12-06</v>
+      </c>
+      <c r="G65" t="str">
         <f t="shared" si="6"/>
-        <v>ACT</v>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" si="7"/>
-        <v>2007-12-06</v>
-      </c>
-      <c r="G65" t="str">
-        <f t="shared" si="8"/>
         <v>2007-12-06</v>
       </c>
       <c r="H65" t="str">
@@ -11477,13 +11358,13 @@
         <v>BC</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66" t="str">
-        <f t="shared" ref="A66:A97" si="10">IF(B66 &lt;&gt; "",B66,"-")</f>
+        <f t="shared" ref="A66:A97" si="7">IF(B66 &lt;&gt; "",B66,"-")</f>
         <v>FM0310432</v>
       </c>
       <c r="B66" t="str">
@@ -11494,20 +11375,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L66,"YYYY-MM-DD")</f>
         <v>2007-03-09</v>
       </c>
-      <c r="D66" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D66</f>
-        <v>BC</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" ref="E66:E97" si="11">"ACT"</f>
-        <v>ACT</v>
+      <c r="D66" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1328</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" ref="F66:F97" si="12">C66</f>
+        <f t="shared" ref="F66:F97" si="8">C66</f>
         <v>2007-03-09</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ref="G66:G97" si="13">C66</f>
+        <f t="shared" ref="G66:G97" si="9">C66</f>
         <v>2007-03-09</v>
       </c>
       <c r="H66" t="str">
@@ -11543,13 +11422,13 @@
         <v>BC</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" ref="P66:P97" si="14">IF(D66="SP","Filing:FRREG","Filing:REGST")</f>
+        <f t="shared" si="3"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0797734</v>
       </c>
       <c r="B67" t="str">
@@ -11560,20 +11439,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L67,"YYYY-MM-DD")</f>
         <v>2017-09-08</v>
       </c>
-      <c r="D67" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D67</f>
-        <v>BC</v>
-      </c>
-      <c r="E67" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D67" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1328</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2017-09-08</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2017-09-08</v>
       </c>
       <c r="H67" t="str">
@@ -11609,13 +11486,13 @@
         <v>BC</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="P67:P119" si="10">IF(D67="Sole Proprietorship","Filing:FRREG","Filing:REGST")</f>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0990719</v>
       </c>
       <c r="B68" t="str">
@@ -11626,20 +11503,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L68,"YYYY-MM-DD")</f>
         <v>2012-10-03</v>
       </c>
-      <c r="D68" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D68</f>
-        <v>BC</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D68" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1328</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2012-10-03</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2012-10-03</v>
       </c>
       <c r="H68" t="str">
@@ -11675,13 +11550,13 @@
         <v>BC</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A69" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0263196</v>
       </c>
       <c r="B69" t="str">
@@ -11692,20 +11567,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L69,"YYYY-MM-DD")</f>
         <v>2012-10-05</v>
       </c>
-      <c r="D69" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D69</f>
-        <v>BC</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D69" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1328</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2012-10-05</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2012-10-05</v>
       </c>
       <c r="H69" t="str">
@@ -11741,13 +11614,13 @@
         <v>BC</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0941835</v>
       </c>
       <c r="B70" t="str">
@@ -11758,20 +11631,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L70,"YYYY-MM-DD")</f>
         <v>2015-03-12</v>
       </c>
-      <c r="D70" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D70</f>
-        <v>BC</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D70" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1328</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2015-03-12</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2015-03-12</v>
       </c>
       <c r="H70" t="str">
@@ -11807,13 +11678,13 @@
         <v>BC</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0842692</v>
       </c>
       <c r="B71" t="str">
@@ -11824,20 +11695,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L71,"YYYY-MM-DD")</f>
         <v>2007-01-13</v>
       </c>
-      <c r="D71" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D71</f>
-        <v>BC</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D71" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1328</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2007-01-13</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2007-01-13</v>
       </c>
       <c r="H71" t="str">
@@ -11873,13 +11742,13 @@
         <v>BC</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0396526</v>
       </c>
       <c r="B72" t="str">
@@ -11890,20 +11759,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L72,"YYYY-MM-DD")</f>
         <v>2009-05-02</v>
       </c>
-      <c r="D72" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D72</f>
-        <v>BC</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D72" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1328</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2009-05-02</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2009-05-02</v>
       </c>
       <c r="H72" t="str">
@@ -11939,13 +11806,13 @@
         <v>BC</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0403540</v>
       </c>
       <c r="B73" t="str">
@@ -11956,20 +11823,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L73,"YYYY-MM-DD")</f>
         <v>2015-03-02</v>
       </c>
-      <c r="D73" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D73</f>
-        <v>BC</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D73" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1328</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2015-03-02</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2015-03-02</v>
       </c>
       <c r="H73" t="str">
@@ -12005,13 +11870,13 @@
         <v>BC</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0430250</v>
       </c>
       <c r="B74" t="str">
@@ -12022,20 +11887,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L74,"YYYY-MM-DD")</f>
         <v>2010-05-30</v>
       </c>
-      <c r="D74" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D74</f>
-        <v>BC</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D74" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1328</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2010-05-30</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2010-05-30</v>
       </c>
       <c r="H74" t="str">
@@ -12071,13 +11934,13 @@
         <v>BC</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0650759</v>
       </c>
       <c r="B75" t="str">
@@ -12088,20 +11951,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L75,"YYYY-MM-DD")</f>
         <v>2005-01-16</v>
       </c>
-      <c r="D75" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D75</f>
-        <v>BC</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D75" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1328</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2005-01-16</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2005-01-16</v>
       </c>
       <c r="H75" t="str">
@@ -12137,13 +11998,13 @@
         <v>BC</v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0505363</v>
       </c>
       <c r="B76" t="str">
@@ -12154,20 +12015,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L76,"YYYY-MM-DD")</f>
         <v>2017-09-30</v>
       </c>
-      <c r="D76" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D76</f>
-        <v>BC</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D76" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1328</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2017-09-30</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2017-09-30</v>
       </c>
       <c r="H76" t="str">
@@ -12203,13 +12062,13 @@
         <v>BC</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A77" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0371990</v>
       </c>
       <c r="B77" t="str">
@@ -12220,20 +12079,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L77,"YYYY-MM-DD")</f>
         <v>2010-07-26</v>
       </c>
-      <c r="D77" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D77</f>
-        <v>BC</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D77" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1328</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2010-07-26</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2010-07-26</v>
       </c>
       <c r="H77" t="str">
@@ -12269,13 +12126,13 @@
         <v>BC</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A78" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0411589</v>
       </c>
       <c r="B78" t="str">
@@ -12286,20 +12143,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L78,"YYYY-MM-DD")</f>
         <v>2010-07-26</v>
       </c>
-      <c r="D78" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D78</f>
-        <v>BC</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D78" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1328</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2010-07-26</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2010-07-26</v>
       </c>
       <c r="H78" t="str">
@@ -12335,13 +12190,13 @@
         <v>BC</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A79" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0126534</v>
       </c>
       <c r="B79" t="str">
@@ -12352,20 +12207,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L79,"YYYY-MM-DD")</f>
         <v>2006-07-18</v>
       </c>
-      <c r="D79" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D79</f>
-        <v>BC</v>
-      </c>
-      <c r="E79" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D79" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1328</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2006-07-18</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2006-07-18</v>
       </c>
       <c r="H79" t="str">
@@ -12401,13 +12254,13 @@
         <v>BC</v>
       </c>
       <c r="P79" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A80" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0869372</v>
       </c>
       <c r="B80" t="str">
@@ -12418,20 +12271,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L80,"YYYY-MM-DD")</f>
         <v>2015-12-11</v>
       </c>
-      <c r="D80" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D80</f>
-        <v>BC</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D80" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1328</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2015-12-11</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2015-12-11</v>
       </c>
       <c r="H80" t="str">
@@ -12467,13 +12318,13 @@
         <v>BC</v>
       </c>
       <c r="P80" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A81" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0996863</v>
       </c>
       <c r="B81" t="str">
@@ -12484,20 +12335,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L81,"YYYY-MM-DD")</f>
         <v>2005-07-14</v>
       </c>
-      <c r="D81" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D81</f>
-        <v>BC</v>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D81" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1328</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2005-07-14</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2005-07-14</v>
       </c>
       <c r="H81" t="str">
@@ -12533,13 +12382,13 @@
         <v>BC</v>
       </c>
       <c r="P81" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0626073</v>
       </c>
       <c r="B82" t="str">
@@ -12550,20 +12399,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L82,"YYYY-MM-DD")</f>
         <v>2006-07-03</v>
       </c>
-      <c r="D82" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D82</f>
-        <v>BC</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D82" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1328</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2006-07-03</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2006-07-03</v>
       </c>
       <c r="H82" t="str">
@@ -12599,13 +12446,13 @@
         <v>BC</v>
       </c>
       <c r="P82" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0998610</v>
       </c>
       <c r="B83" t="str">
@@ -12616,20 +12463,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L83,"YYYY-MM-DD")</f>
         <v>2010-09-24</v>
       </c>
-      <c r="D83" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D83</f>
-        <v>BC</v>
-      </c>
-      <c r="E83" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D83" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1328</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2010-09-24</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2010-09-24</v>
       </c>
       <c r="H83" t="str">
@@ -12665,13 +12510,13 @@
         <v>BC</v>
       </c>
       <c r="P83" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A84" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0657989</v>
       </c>
       <c r="B84" t="str">
@@ -12682,20 +12527,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L84,"YYYY-MM-DD")</f>
         <v>2010-02-28</v>
       </c>
-      <c r="D84" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D84</f>
-        <v>BC</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D84" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1328</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2010-02-28</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2010-02-28</v>
       </c>
       <c r="H84" t="str">
@@ -12731,13 +12574,13 @@
         <v>BC</v>
       </c>
       <c r="P84" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A85" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0256234</v>
       </c>
       <c r="B85" t="str">
@@ -12748,20 +12591,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L85,"YYYY-MM-DD")</f>
         <v>2018-03-16</v>
       </c>
-      <c r="D85" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D85</f>
-        <v>BC</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D85" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1328</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2018-03-16</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2018-03-16</v>
       </c>
       <c r="H85" t="str">
@@ -12797,13 +12638,13 @@
         <v>BC</v>
       </c>
       <c r="P85" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0531049</v>
       </c>
       <c r="B86" t="str">
@@ -12814,20 +12655,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L86,"YYYY-MM-DD")</f>
         <v>2005-11-15</v>
       </c>
-      <c r="D86" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D86</f>
-        <v>BC</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D86" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1328</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2005-11-15</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2005-11-15</v>
       </c>
       <c r="H86" t="str">
@@ -12863,13 +12702,13 @@
         <v>BC</v>
       </c>
       <c r="P86" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A87" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0706765</v>
       </c>
       <c r="B87" t="str">
@@ -12880,20 +12719,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L87,"YYYY-MM-DD")</f>
         <v>2006-02-24</v>
       </c>
-      <c r="D87" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D87</f>
-        <v>BC</v>
-      </c>
-      <c r="E87" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D87" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1328</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2006-02-24</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2006-02-24</v>
       </c>
       <c r="H87" t="str">
@@ -12929,13 +12766,13 @@
         <v>BC</v>
       </c>
       <c r="P87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A88" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0577961</v>
       </c>
       <c r="B88" t="str">
@@ -12946,20 +12783,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L88,"YYYY-MM-DD")</f>
         <v>2011-07-07</v>
       </c>
-      <c r="D88" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D88</f>
-        <v>BC</v>
-      </c>
-      <c r="E88" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D88" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1328</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2011-07-07</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2011-07-07</v>
       </c>
       <c r="H88" t="str">
@@ -12995,13 +12830,13 @@
         <v>BC</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A89" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0413030</v>
       </c>
       <c r="B89" t="str">
@@ -13012,20 +12847,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L89,"YYYY-MM-DD")</f>
         <v>2013-09-25</v>
       </c>
-      <c r="D89" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D89</f>
-        <v>BC</v>
-      </c>
-      <c r="E89" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D89" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1328</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2013-09-25</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2013-09-25</v>
       </c>
       <c r="H89" t="str">
@@ -13061,13 +12894,13 @@
         <v>BC</v>
       </c>
       <c r="P89" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A90" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0749927</v>
       </c>
       <c r="B90" t="str">
@@ -13078,20 +12911,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L90,"YYYY-MM-DD")</f>
         <v>2007-05-24</v>
       </c>
-      <c r="D90" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D90</f>
-        <v>BC</v>
-      </c>
-      <c r="E90" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D90" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1328</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2007-05-24</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2007-05-24</v>
       </c>
       <c r="H90" t="str">
@@ -13127,13 +12958,13 @@
         <v>BC</v>
       </c>
       <c r="P90" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A91" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0978608</v>
       </c>
       <c r="B91" t="str">
@@ -13144,20 +12975,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L91,"YYYY-MM-DD")</f>
         <v>2016-12-24</v>
       </c>
-      <c r="D91" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D91</f>
-        <v>BC</v>
-      </c>
-      <c r="E91" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D91" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1328</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2016-12-24</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2016-12-24</v>
       </c>
       <c r="H91" t="str">
@@ -13193,13 +13022,13 @@
         <v>BC</v>
       </c>
       <c r="P91" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A92" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>FM0371429</v>
       </c>
       <c r="B92" t="str">
@@ -13210,20 +13039,18 @@
         <f>TEXT('TOB Data - Fake - Restaurants'!L92,"YYYY-MM-DD")</f>
         <v>2008-07-25</v>
       </c>
-      <c r="D92" t="str">
-        <f>'TOB Data - Fake - Restaurants'!D92</f>
-        <v>BC</v>
-      </c>
-      <c r="E92" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="D92" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1328</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2008-07-25</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2008-07-25</v>
       </c>
       <c r="H92" t="str">
@@ -13259,13 +13086,13 @@
         <v>BC</v>
       </c>
       <c r="P92" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B93">
@@ -13280,16 +13107,15 @@
         <f>'TOB Data - Fake - Restaurants'!D93</f>
         <v>0</v>
       </c>
-      <c r="E93" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="E93" t="s">
+        <v>1328</v>
       </c>
       <c r="F93" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="G93" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
       <c r="H93" t="str">
@@ -13325,13 +13151,13 @@
         <v>BC</v>
       </c>
       <c r="P93" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B94">
@@ -13346,16 +13172,15 @@
         <f>'TOB Data - Fake - Restaurants'!D94</f>
         <v>0</v>
       </c>
-      <c r="E94" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="E94" t="s">
+        <v>1328</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1900-01-00</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1900-01-00</v>
       </c>
       <c r="H94" t="str">
@@ -13391,13 +13216,13 @@
         <v>BC</v>
       </c>
       <c r="P94" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B95">
@@ -13412,16 +13237,15 @@
         <f>'TOB Data - Fake - Restaurants'!D95</f>
         <v>0</v>
       </c>
-      <c r="E95" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="E95" t="s">
+        <v>1328</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1900-01-00</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1900-01-00</v>
       </c>
       <c r="H95" t="str">
@@ -13457,13 +13281,13 @@
         <v>BC</v>
       </c>
       <c r="P95" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B96">
@@ -13478,16 +13302,15 @@
         <f>'TOB Data - Fake - Restaurants'!D96</f>
         <v>0</v>
       </c>
-      <c r="E96" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="E96" t="s">
+        <v>1328</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1900-01-00</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1900-01-00</v>
       </c>
       <c r="H96" t="str">
@@ -13523,13 +13346,13 @@
         <v>BC</v>
       </c>
       <c r="P96" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B97">
@@ -13544,16 +13367,15 @@
         <f>'TOB Data - Fake - Restaurants'!D97</f>
         <v>0</v>
       </c>
-      <c r="E97" t="str">
-        <f t="shared" si="11"/>
-        <v>ACT</v>
+      <c r="E97" t="s">
+        <v>1328</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1900-01-00</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1900-01-00</v>
       </c>
       <c r="H97" t="str">
@@ -13589,13 +13411,13 @@
         <v>BC</v>
       </c>
       <c r="P97" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A98">
-        <f t="shared" ref="A98:A119" si="15">IF(B98 &lt;&gt; "",B98,"-")</f>
+        <f t="shared" ref="A98:A119" si="11">IF(B98 &lt;&gt; "",B98,"-")</f>
         <v>0</v>
       </c>
       <c r="B98">
@@ -13610,16 +13432,15 @@
         <f>'TOB Data - Fake - Restaurants'!D98</f>
         <v>0</v>
       </c>
-      <c r="E98" t="str">
-        <f t="shared" ref="E98:E119" si="16">"ACT"</f>
-        <v>ACT</v>
+      <c r="E98" t="s">
+        <v>1328</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" ref="F98:F119" si="17">C98</f>
+        <f t="shared" ref="F98:F119" si="12">C98</f>
         <v>1900-01-00</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" ref="G98:G119" si="18">C98</f>
+        <f t="shared" ref="G98:G119" si="13">C98</f>
         <v>1900-01-00</v>
       </c>
       <c r="H98" t="str">
@@ -13655,13 +13476,13 @@
         <v>BC</v>
       </c>
       <c r="P98" t="str">
-        <f t="shared" ref="P98:P119" si="19">IF(D98="SP","Filing:FRREG","Filing:REGST")</f>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B99">
@@ -13676,16 +13497,15 @@
         <f>'TOB Data - Fake - Restaurants'!D99</f>
         <v>0</v>
       </c>
-      <c r="E99" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E99" t="s">
+        <v>1328</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H99" t="str">
@@ -13721,13 +13541,13 @@
         <v>BC</v>
       </c>
       <c r="P99" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B100">
@@ -13742,16 +13562,15 @@
         <f>'TOB Data - Fake - Restaurants'!D100</f>
         <v>0</v>
       </c>
-      <c r="E100" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E100" t="s">
+        <v>1328</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H100" t="str">
@@ -13787,13 +13606,13 @@
         <v>BC</v>
       </c>
       <c r="P100" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B101">
@@ -13808,16 +13627,15 @@
         <f>'TOB Data - Fake - Restaurants'!D101</f>
         <v>0</v>
       </c>
-      <c r="E101" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E101" t="s">
+        <v>1328</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H101" t="str">
@@ -13853,13 +13671,13 @@
         <v>BC</v>
       </c>
       <c r="P101" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B102">
@@ -13874,16 +13692,15 @@
         <f>'TOB Data - Fake - Restaurants'!D102</f>
         <v>0</v>
       </c>
-      <c r="E102" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E102" t="s">
+        <v>1328</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H102" t="str">
@@ -13919,13 +13736,13 @@
         <v>BC</v>
       </c>
       <c r="P102" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B103">
@@ -13940,16 +13757,15 @@
         <f>'TOB Data - Fake - Restaurants'!D103</f>
         <v>0</v>
       </c>
-      <c r="E103" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E103" t="s">
+        <v>1328</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H103" t="str">
@@ -13985,13 +13801,13 @@
         <v>BC</v>
       </c>
       <c r="P103" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B104">
@@ -14006,16 +13822,15 @@
         <f>'TOB Data - Fake - Restaurants'!D104</f>
         <v>0</v>
       </c>
-      <c r="E104" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E104" t="s">
+        <v>1328</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H104" t="str">
@@ -14051,13 +13866,13 @@
         <v>BC</v>
       </c>
       <c r="P104" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B105">
@@ -14072,16 +13887,15 @@
         <f>'TOB Data - Fake - Restaurants'!D105</f>
         <v>0</v>
       </c>
-      <c r="E105" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E105" t="s">
+        <v>1328</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H105" t="str">
@@ -14117,13 +13931,13 @@
         <v>BC</v>
       </c>
       <c r="P105" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B106">
@@ -14138,16 +13952,15 @@
         <f>'TOB Data - Fake - Restaurants'!D106</f>
         <v>0</v>
       </c>
-      <c r="E106" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E106" t="s">
+        <v>1328</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H106" t="str">
@@ -14183,13 +13996,13 @@
         <v>BC</v>
       </c>
       <c r="P106" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B107">
@@ -14204,16 +14017,15 @@
         <f>'TOB Data - Fake - Restaurants'!D107</f>
         <v>0</v>
       </c>
-      <c r="E107" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E107" t="s">
+        <v>1328</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H107" t="str">
@@ -14249,13 +14061,13 @@
         <v>BC</v>
       </c>
       <c r="P107" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B108">
@@ -14270,16 +14082,15 @@
         <f>'TOB Data - Fake - Restaurants'!D108</f>
         <v>0</v>
       </c>
-      <c r="E108" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E108" t="s">
+        <v>1328</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H108" t="str">
@@ -14315,13 +14126,13 @@
         <v>BC</v>
       </c>
       <c r="P108" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B109">
@@ -14336,16 +14147,15 @@
         <f>'TOB Data - Fake - Restaurants'!D109</f>
         <v>0</v>
       </c>
-      <c r="E109" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E109" t="s">
+        <v>1328</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H109" t="str">
@@ -14381,13 +14191,13 @@
         <v>BC</v>
       </c>
       <c r="P109" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B110">
@@ -14402,16 +14212,15 @@
         <f>'TOB Data - Fake - Restaurants'!D110</f>
         <v>0</v>
       </c>
-      <c r="E110" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E110" t="s">
+        <v>1328</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H110" t="str">
@@ -14447,13 +14256,13 @@
         <v>BC</v>
       </c>
       <c r="P110" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B111">
@@ -14468,16 +14277,15 @@
         <f>'TOB Data - Fake - Restaurants'!D111</f>
         <v>0</v>
       </c>
-      <c r="E111" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E111" t="s">
+        <v>1328</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H111" t="str">
@@ -14513,13 +14321,13 @@
         <v>BC</v>
       </c>
       <c r="P111" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B112">
@@ -14534,16 +14342,15 @@
         <f>'TOB Data - Fake - Restaurants'!D112</f>
         <v>0</v>
       </c>
-      <c r="E112" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E112" t="s">
+        <v>1328</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H112" t="str">
@@ -14579,13 +14386,13 @@
         <v>BC</v>
       </c>
       <c r="P112" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B113">
@@ -14600,16 +14407,15 @@
         <f>'TOB Data - Fake - Restaurants'!D113</f>
         <v>0</v>
       </c>
-      <c r="E113" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E113" t="s">
+        <v>1328</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H113" t="str">
@@ -14645,13 +14451,13 @@
         <v>BC</v>
       </c>
       <c r="P113" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B114">
@@ -14666,16 +14472,15 @@
         <f>'TOB Data - Fake - Restaurants'!D114</f>
         <v>0</v>
       </c>
-      <c r="E114" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E114" t="s">
+        <v>1328</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H114" t="str">
@@ -14711,13 +14516,13 @@
         <v>BC</v>
       </c>
       <c r="P114" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B115">
@@ -14732,16 +14537,15 @@
         <f>'TOB Data - Fake - Restaurants'!D115</f>
         <v>0</v>
       </c>
-      <c r="E115" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E115" t="s">
+        <v>1328</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H115" t="str">
@@ -14777,13 +14581,13 @@
         <v>BC</v>
       </c>
       <c r="P115" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B116">
@@ -14798,16 +14602,15 @@
         <f>'TOB Data - Fake - Restaurants'!D116</f>
         <v>0</v>
       </c>
-      <c r="E116" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E116" t="s">
+        <v>1328</v>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H116" t="str">
@@ -14843,13 +14646,13 @@
         <v>BC</v>
       </c>
       <c r="P116" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B117">
@@ -14864,16 +14667,15 @@
         <f>'TOB Data - Fake - Restaurants'!D117</f>
         <v>0</v>
       </c>
-      <c r="E117" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E117" t="s">
+        <v>1328</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H117" t="str">
@@ -14909,13 +14711,13 @@
         <v>BC</v>
       </c>
       <c r="P117" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B118">
@@ -14930,16 +14732,15 @@
         <f>'TOB Data - Fake - Restaurants'!D118</f>
         <v>0</v>
       </c>
-      <c r="E118" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E118" t="s">
+        <v>1328</v>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G118" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H118">
@@ -14975,13 +14776,13 @@
         <v>0</v>
       </c>
       <c r="P118" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B119">
@@ -14996,16 +14797,15 @@
         <f>'TOB Data - Fake - Restaurants'!D119</f>
         <v>0</v>
       </c>
-      <c r="E119" t="str">
-        <f t="shared" si="16"/>
-        <v>ACT</v>
+      <c r="E119" t="s">
+        <v>1328</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1900-01-00</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1900-01-00</v>
       </c>
       <c r="H119">
@@ -15041,13 +14841,13 @@
         <v>0</v>
       </c>
       <c r="P119" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>Filing:REGST</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15055,7 +14855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -15105,12 +14905,12 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D2 = "SP",'TOB Data - Fake - Restaurants'!M2,"-")</f>
-        <v>FM0996863</v>
+        <f>IF('registration.permitify.csv'!D2 = "SP",'TOB Data - Fake - Restaurants'!M2,"-")</f>
+        <v>-</v>
       </c>
       <c r="B2" t="str">
-        <f ca="1">A2</f>
-        <v>FM0996863</v>
+        <f>A2</f>
+        <v>-</v>
       </c>
       <c r="C2" t="str">
         <f>'registration.permitify.csv'!B2</f>
@@ -15143,12 +14943,12 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D3 = "SP",'TOB Data - Fake - Restaurants'!M3,"-")</f>
-        <v>FM0998610</v>
+        <f>IF('registration.permitify.csv'!D3 = "SP",'TOB Data - Fake - Restaurants'!M3,"-")</f>
+        <v>-</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" ca="1" si="1">A3</f>
-        <v>FM0998610</v>
+        <f t="shared" ref="B3:B66" si="1">A3</f>
+        <v>-</v>
       </c>
       <c r="C3" t="str">
         <f>'registration.permitify.csv'!B3</f>
@@ -15181,12 +14981,12 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D4 = "SP",'TOB Data - Fake - Restaurants'!M4,"-")</f>
-        <v>FM0657989</v>
+        <f>IF('registration.permitify.csv'!D4 = "SP",'TOB Data - Fake - Restaurants'!M4,"-")</f>
+        <v>-</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0657989</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C4" t="str">
         <f>'registration.permitify.csv'!B4</f>
@@ -15219,12 +15019,12 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D5 = "SP",'TOB Data - Fake - Restaurants'!M5,"-")</f>
-        <v>FM0126534</v>
+        <f>IF('registration.permitify.csv'!D5 = "SP",'TOB Data - Fake - Restaurants'!M5,"-")</f>
+        <v>-</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0126534</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C5" t="str">
         <f>'registration.permitify.csv'!B5</f>
@@ -15257,12 +15057,12 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D6 = "SP",'TOB Data - Fake - Restaurants'!M6,"-")</f>
-        <v>FM0650759</v>
+        <f>IF('registration.permitify.csv'!D6 = "SP",'TOB Data - Fake - Restaurants'!M6,"-")</f>
+        <v>-</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0650759</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C6" t="str">
         <f>'registration.permitify.csv'!B6</f>
@@ -15295,12 +15095,12 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D7 = "SP",'TOB Data - Fake - Restaurants'!M7,"-")</f>
-        <v>FM0577961</v>
+        <f>IF('registration.permitify.csv'!D7 = "SP",'TOB Data - Fake - Restaurants'!M7,"-")</f>
+        <v>-</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0577961</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C7" t="str">
         <f>'registration.permitify.csv'!B7</f>
@@ -15333,12 +15133,12 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D8 = "SP",'TOB Data - Fake - Restaurants'!M8,"-")</f>
-        <v>FM0978608</v>
+        <f>IF('registration.permitify.csv'!D8 = "SP",'TOB Data - Fake - Restaurants'!M8,"-")</f>
+        <v>-</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0978608</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C8" t="str">
         <f>'registration.permitify.csv'!B8</f>
@@ -15371,12 +15171,12 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D9 = "SP",'TOB Data - Fake - Restaurants'!M9,"-")</f>
-        <v>FM0706765</v>
+        <f>IF('registration.permitify.csv'!D9 = "SP",'TOB Data - Fake - Restaurants'!M9,"-")</f>
+        <v>-</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0706765</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C9" t="str">
         <f>'registration.permitify.csv'!B9</f>
@@ -15409,12 +15209,12 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D10 = "SP",'TOB Data - Fake - Restaurants'!M10,"-")</f>
-        <v>FM0403540</v>
+        <f>IF('registration.permitify.csv'!D10 = "SP",'TOB Data - Fake - Restaurants'!M10,"-")</f>
+        <v>-</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0403540</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C10" t="str">
         <f>'registration.permitify.csv'!B10</f>
@@ -15447,12 +15247,12 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D11 = "SP",'TOB Data - Fake - Restaurants'!M11,"-")</f>
-        <v>FM0531049</v>
+        <f>IF('registration.permitify.csv'!D11 = "SP",'TOB Data - Fake - Restaurants'!M11,"-")</f>
+        <v>-</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0531049</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C11" t="str">
         <f>'registration.permitify.csv'!B11</f>
@@ -15485,12 +15285,12 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D12 = "SP",'TOB Data - Fake - Restaurants'!M12,"-")</f>
-        <v>FM0996863</v>
+        <f>IF('registration.permitify.csv'!D12 = "SP",'TOB Data - Fake - Restaurants'!M12,"-")</f>
+        <v>-</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0996863</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C12" t="str">
         <f>'registration.permitify.csv'!B12</f>
@@ -15523,12 +15323,12 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D13 = "SP",'TOB Data - Fake - Restaurants'!M13,"-")</f>
-        <v>FM0998610</v>
+        <f>IF('registration.permitify.csv'!D13 = "SP",'TOB Data - Fake - Restaurants'!M13,"-")</f>
+        <v>-</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0998610</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C13" t="str">
         <f>'registration.permitify.csv'!B13</f>
@@ -15561,12 +15361,12 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D14 = "SP",'TOB Data - Fake - Restaurants'!M14,"-")</f>
-        <v>FM0978608</v>
+        <f>IF('registration.permitify.csv'!D14 = "SP",'TOB Data - Fake - Restaurants'!M14,"-")</f>
+        <v>-</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0978608</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C14" t="str">
         <f>'registration.permitify.csv'!B14</f>
@@ -15599,12 +15399,12 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D15 = "SP",'TOB Data - Fake - Restaurants'!M15,"-")</f>
-        <v>FM0577961</v>
+        <f>IF('registration.permitify.csv'!D15 = "SP",'TOB Data - Fake - Restaurants'!M15,"-")</f>
+        <v>-</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0577961</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C15" t="str">
         <f>'registration.permitify.csv'!B15</f>
@@ -15637,12 +15437,12 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D16 = "SP",'TOB Data - Fake - Restaurants'!M16,"-")</f>
-        <v>FM0626073</v>
+        <f>IF('registration.permitify.csv'!D16 = "SP",'TOB Data - Fake - Restaurants'!M16,"-")</f>
+        <v>-</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0626073</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C16" t="str">
         <f>'registration.permitify.csv'!B16</f>
@@ -15675,12 +15475,12 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D17 = "SP",'TOB Data - Fake - Restaurants'!M17,"-")</f>
-        <v>FM0626073</v>
+        <f>IF('registration.permitify.csv'!D17 = "SP",'TOB Data - Fake - Restaurants'!M17,"-")</f>
+        <v>-</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0626073</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C17" t="str">
         <f>'registration.permitify.csv'!B17</f>
@@ -15713,12 +15513,12 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D18 = "SP",'TOB Data - Fake - Restaurants'!M18,"-")</f>
-        <v>FM0371429</v>
+        <f>IF('registration.permitify.csv'!D18 = "SP",'TOB Data - Fake - Restaurants'!M18,"-")</f>
+        <v>-</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0371429</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C18" t="str">
         <f>'registration.permitify.csv'!B18</f>
@@ -15751,12 +15551,12 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D19 = "SP",'TOB Data - Fake - Restaurants'!M19,"-")</f>
-        <v>FM0998610</v>
+        <f>IF('registration.permitify.csv'!D19 = "SP",'TOB Data - Fake - Restaurants'!M19,"-")</f>
+        <v>-</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0998610</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C19" t="str">
         <f>'registration.permitify.csv'!B19</f>
@@ -15789,12 +15589,12 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D20 = "SP",'TOB Data - Fake - Restaurants'!M20,"-")</f>
-        <v>FM0577961</v>
+        <f>IF('registration.permitify.csv'!D20 = "SP",'TOB Data - Fake - Restaurants'!M20,"-")</f>
+        <v>-</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0577961</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C20" t="str">
         <f>'registration.permitify.csv'!B20</f>
@@ -15827,12 +15627,12 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D21 = "SP",'TOB Data - Fake - Restaurants'!M21,"-")</f>
-        <v>FM0126534</v>
+        <f>IF('registration.permitify.csv'!D21 = "SP",'TOB Data - Fake - Restaurants'!M21,"-")</f>
+        <v>-</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0126534</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C21" t="str">
         <f>'registration.permitify.csv'!B21</f>
@@ -15865,12 +15665,12 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D22 = "SP",'TOB Data - Fake - Restaurants'!M22,"-")</f>
-        <v>FM0626073</v>
+        <f>IF('registration.permitify.csv'!D22 = "SP",'TOB Data - Fake - Restaurants'!M22,"-")</f>
+        <v>-</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0626073</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C22" t="str">
         <f>'registration.permitify.csv'!B22</f>
@@ -15903,12 +15703,12 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D23 = "SP",'TOB Data - Fake - Restaurants'!M23,"-")</f>
-        <v>FM0657989</v>
+        <f>IF('registration.permitify.csv'!D23 = "SP",'TOB Data - Fake - Restaurants'!M23,"-")</f>
+        <v>-</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0657989</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C23" t="str">
         <f>'registration.permitify.csv'!B23</f>
@@ -15941,12 +15741,12 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D24 = "SP",'TOB Data - Fake - Restaurants'!M24,"-")</f>
-        <v>FM0411589</v>
+        <f>IF('registration.permitify.csv'!D24 = "SP",'TOB Data - Fake - Restaurants'!M24,"-")</f>
+        <v>-</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0411589</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C24" t="str">
         <f>'registration.permitify.csv'!B24</f>
@@ -15979,12 +15779,12 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D25 = "SP",'TOB Data - Fake - Restaurants'!M25,"-")</f>
-        <v>FM0531049</v>
+        <f>IF('registration.permitify.csv'!D25 = "SP",'TOB Data - Fake - Restaurants'!M25,"-")</f>
+        <v>-</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0531049</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C25" t="str">
         <f>'registration.permitify.csv'!B25</f>
@@ -16017,12 +15817,12 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D26 = "SP",'TOB Data - Fake - Restaurants'!M26,"-")</f>
-        <v>FM0978608</v>
+        <f>IF('registration.permitify.csv'!D26 = "SP",'TOB Data - Fake - Restaurants'!M26,"-")</f>
+        <v>-</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0978608</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C26" t="str">
         <f>'registration.permitify.csv'!B26</f>
@@ -16055,12 +15855,12 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D27 = "SP",'TOB Data - Fake - Restaurants'!M27,"-")</f>
-        <v>FM0978608</v>
+        <f>IF('registration.permitify.csv'!D27 = "SP",'TOB Data - Fake - Restaurants'!M27,"-")</f>
+        <v>-</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0978608</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C27" t="str">
         <f>'registration.permitify.csv'!B27</f>
@@ -16093,12 +15893,12 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D28 = "SP",'TOB Data - Fake - Restaurants'!M28,"-")</f>
-        <v>FM0403540</v>
+        <f>IF('registration.permitify.csv'!D28 = "SP",'TOB Data - Fake - Restaurants'!M28,"-")</f>
+        <v>-</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0403540</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C28" t="str">
         <f>'registration.permitify.csv'!B28</f>
@@ -16131,12 +15931,12 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D29 = "SP",'TOB Data - Fake - Restaurants'!M29,"-")</f>
-        <v>FM0749927</v>
+        <f>IF('registration.permitify.csv'!D29 = "SP",'TOB Data - Fake - Restaurants'!M29,"-")</f>
+        <v>-</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0749927</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C29" t="str">
         <f>'registration.permitify.csv'!B29</f>
@@ -16169,12 +15969,12 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
-        <f ca="1">IF('registration.permitify.csv'!D30 = "SP",'TOB Data - Fake - Restaurants'!M30,"-")</f>
-        <v>FM0998610</v>
+        <f>IF('registration.permitify.csv'!D30 = "SP",'TOB Data - Fake - Restaurants'!M30,"-")</f>
+        <v>-</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FM0998610</v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="C30" t="str">
         <f>'registration.permitify.csv'!B30</f>
